--- a/SourceCode/2023/July2023/Rajasekhar/Supplier_Mangement_Challenge/Supplier_Management_Sysem/Data/Config.xlsx
+++ b/SourceCode/2023/July2023/Rajasekhar/Supplier_Mangement_Challenge/Supplier_Management_Sysem/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sekha\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2023\July2023\Rajasekhar\Supplier_Mangement_Challenge\Supplier_Management_Sysem\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E779EF-3FEE-4378-8088-0EBB940A8FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51418355-1315-4E6D-9889-131614A939FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>PFA</t>
+  </si>
+  <si>
+    <t>Orchestrator_Folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestrator_Asset </t>
+  </si>
+  <si>
+    <t>O365_Credentials</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>TenantID</t>
+  </si>
+  <si>
+    <t>8366e150-0aca-4c85-8d61-222ded741873</t>
   </si>
 </sst>
 </file>
@@ -590,7 +608,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -732,9 +750,30 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
